--- a/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_马丁组.xlsx
@@ -960,6 +960,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -986,12 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,7 +1605,7 @@
       <c r="M4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>94</v>
       </c>
       <c r="O4" s="63" t="s">
@@ -1681,7 +1681,7 @@
       <c r="C6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="79" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="54" t="s">
@@ -5663,19 +5663,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5713,8 +5713,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5726,8 +5726,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5739,8 +5739,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5752,8 +5752,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5765,8 +5765,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5778,8 +5778,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5791,8 +5791,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5804,8 +5804,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5866,36 +5866,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6180,36 +6180,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6494,36 +6494,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6810,36 +6810,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -335,6 +335,10 @@
   </si>
   <si>
     <t>房源录入上架房东状态验证</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1383,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,7 +1493,9 @@
       <c r="E2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="G2" s="54" t="s">
         <v>25</v>
       </c>
@@ -1512,9 +1518,15 @@
       <c r="N2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="63"/>
+      <c r="O2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="55">
+        <v>42727</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>96</v>
+      </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
       <c r="T2" s="68"/>
@@ -1537,7 +1549,9 @@
       <c r="E3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>25</v>
       </c>
@@ -1560,9 +1574,15 @@
       <c r="N3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="63"/>
+      <c r="O3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="55">
+        <v>42727</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>96</v>
+      </c>
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
       <c r="T3" s="68"/>
@@ -1585,7 +1605,9 @@
       <c r="E4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="54" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1661,9 @@
       <c r="E5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="54" t="s">
         <v>25</v>
       </c>
@@ -1662,9 +1686,15 @@
       <c r="N5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="63"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="63"/>
+      <c r="O5" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="55">
+        <v>42727</v>
+      </c>
+      <c r="Q5" s="63" t="s">
+        <v>96</v>
+      </c>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="68"/>
@@ -1687,7 +1717,9 @@
       <c r="E6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="G6" s="54" t="s">
         <v>25</v>
       </c>
@@ -1743,7 +1775,9 @@
       <c r="E7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="G7" s="54" t="s">
         <v>25</v>
       </c>
@@ -1766,9 +1800,15 @@
       <c r="N7" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="63"/>
+      <c r="O7" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="55">
+        <v>42727</v>
+      </c>
+      <c r="Q7" s="63" t="s">
+        <v>96</v>
+      </c>
       <c r="R7" s="60"/>
       <c r="S7" s="60"/>
       <c r="T7" s="68"/>

--- a/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="100">
   <si>
     <t>No</t>
   </si>
@@ -211,9 +211,6 @@
     <t>否</t>
   </si>
   <si>
-    <t>com.mogoroom.tasktracker.task.RoomPictureMD5Task</t>
-  </si>
-  <si>
     <t>定时任务</t>
   </si>
   <si>
@@ -339,6 +336,14 @@
   </si>
   <si>
     <t>房东PC</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomPictureMD5Task</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomPictureMD5Task"}</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1499,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>25</v>
@@ -1519,13 +1524,13 @@
         <v>28</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P2" s="55">
         <v>42727</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -1550,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>25</v>
@@ -1575,13 +1580,13 @@
         <v>28</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" s="55">
         <v>42727</v>
       </c>
       <c r="Q3" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
@@ -1606,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>25</v>
@@ -1628,16 +1633,16 @@
         <v>27</v>
       </c>
       <c r="N4" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="63" t="s">
         <v>94</v>
-      </c>
-      <c r="O4" s="63" t="s">
-        <v>95</v>
       </c>
       <c r="P4" s="55">
         <v>42727</v>
       </c>
       <c r="Q4" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
@@ -1662,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>25</v>
@@ -1687,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="O5" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P5" s="55">
         <v>42727</v>
       </c>
       <c r="Q5" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
@@ -1712,13 +1717,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>25</v>
@@ -1743,13 +1748,13 @@
         <v>33</v>
       </c>
       <c r="O6" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" s="55">
         <v>42727</v>
       </c>
       <c r="Q6" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="60">
         <v>6813</v>
@@ -1776,7 +1781,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>25</v>
@@ -1798,16 +1803,16 @@
         <v>27</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" s="55">
         <v>42727</v>
       </c>
       <c r="Q7" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" s="60"/>
       <c r="S7" s="60"/>
@@ -5505,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5585,12 +5590,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
@@ -5612,26 +5617,28 @@
         <v>57</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="41"/>
+        <v>91</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="N2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="45" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="44"/>
     </row>
@@ -5704,7 +5711,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -5719,34 +5726,34 @@
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>20</v>
@@ -5907,7 +5914,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -5939,40 +5946,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6221,7 +6228,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -6253,40 +6260,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6535,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -6567,40 +6574,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6851,7 +6858,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -6883,40 +6890,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -7161,28 +7168,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
